--- a/1b.xlsx
+++ b/1b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Java\git\inf102f18-mandatory1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09977ABF-736B-4256-9D7E-B8912520CFE2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BD784C-F15B-4749-9F47-BC2378ACD7E4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="30936" windowHeight="8988" xr2:uid="{67761E89-FC42-46C7-9F64-9632D6012636}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>lb</t>
   </si>
@@ -41,14 +41,31 @@
     <t>ub</t>
   </si>
   <si>
-    <t>initial values</t>
+    <t>*</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">* lb +1 &gt;= ub </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>→ no partition for subarrays of size &lt; 2</t>
+    </r>
+  </si>
+  <si>
+    <t>initial values →</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +85,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -108,6 +145,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -424,10 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0CF2571-1870-4357-89A0-5385EA1B5489}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -483,7 +532,7 @@
     </row>
     <row r="3" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1">
         <v>11</v>
@@ -541,7 +590,7 @@
       <c r="J4" s="3">
         <v>2</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="4">
         <v>11</v>
       </c>
       <c r="L4" s="3">
@@ -562,39 +611,39 @@
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
         <v>5</v>
       </c>
       <c r="F5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>5</v>
       </c>
       <c r="I5" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1">
-        <v>11</v>
-      </c>
-      <c r="K5" s="1">
-        <v>13</v>
-      </c>
-      <c r="L5" s="1">
-        <v>11</v>
-      </c>
-      <c r="M5" s="1">
-        <v>12</v>
-      </c>
-      <c r="N5" s="1">
-        <v>16</v>
-      </c>
-      <c r="O5" s="1">
+        <v>5</v>
+      </c>
+      <c r="K5" s="5">
+        <v>11</v>
+      </c>
+      <c r="L5" s="5">
+        <v>13</v>
+      </c>
+      <c r="M5" s="5">
+        <v>12</v>
+      </c>
+      <c r="N5" s="5">
+        <v>16</v>
+      </c>
+      <c r="O5" s="5">
         <v>14</v>
       </c>
     </row>
@@ -603,68 +652,479 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4</v>
+      </c>
+      <c r="H6" s="5">
+        <v>5</v>
+      </c>
+      <c r="I6" s="5">
+        <v>11</v>
+      </c>
+      <c r="J6" s="5">
+        <v>5</v>
+      </c>
+      <c r="K6" s="5">
+        <v>11</v>
+      </c>
+      <c r="L6" s="5">
+        <v>13</v>
+      </c>
+      <c r="M6" s="5">
+        <v>12</v>
+      </c>
+      <c r="N6" s="5">
+        <v>16</v>
+      </c>
+      <c r="O6" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1">
-        <v>4</v>
-      </c>
-      <c r="I6" s="1">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1">
-        <v>11</v>
-      </c>
-      <c r="K6" s="1">
-        <v>13</v>
-      </c>
-      <c r="L6" s="1">
-        <v>11</v>
-      </c>
-      <c r="M6" s="1">
-        <v>12</v>
-      </c>
-      <c r="N6" s="1">
-        <v>16</v>
-      </c>
-      <c r="O6" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="22" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="24" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5">
+        <v>4</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5">
+        <v>11</v>
+      </c>
+      <c r="J7" s="5">
+        <v>5</v>
+      </c>
+      <c r="K7" s="5">
+        <v>11</v>
+      </c>
+      <c r="L7" s="5">
+        <v>13</v>
+      </c>
+      <c r="M7" s="5">
+        <v>12</v>
+      </c>
+      <c r="N7" s="5">
+        <v>16</v>
+      </c>
+      <c r="O7" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="5">
+        <v>4</v>
+      </c>
+      <c r="H8" s="5">
+        <v>5</v>
+      </c>
+      <c r="I8" s="5">
+        <v>11</v>
+      </c>
+      <c r="J8" s="5">
+        <v>5</v>
+      </c>
+      <c r="K8" s="5">
+        <v>11</v>
+      </c>
+      <c r="L8" s="5">
+        <v>13</v>
+      </c>
+      <c r="M8" s="5">
+        <v>12</v>
+      </c>
+      <c r="N8" s="5">
+        <v>16</v>
+      </c>
+      <c r="O8" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>4</v>
+      </c>
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>5</v>
+      </c>
+      <c r="J9" s="4">
+        <v>11</v>
+      </c>
+      <c r="K9" s="5">
+        <v>11</v>
+      </c>
+      <c r="L9" s="5">
+        <v>13</v>
+      </c>
+      <c r="M9" s="5">
+        <v>12</v>
+      </c>
+      <c r="N9" s="5">
+        <v>16</v>
+      </c>
+      <c r="O9" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="F10" s="5">
+        <v>2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>4</v>
+      </c>
+      <c r="H10" s="5">
+        <v>5</v>
+      </c>
+      <c r="I10" s="4">
+        <v>5</v>
+      </c>
+      <c r="J10" s="5">
+        <v>11</v>
+      </c>
+      <c r="K10" s="5">
+        <v>11</v>
+      </c>
+      <c r="L10" s="5">
+        <v>13</v>
+      </c>
+      <c r="M10" s="5">
+        <v>12</v>
+      </c>
+      <c r="N10" s="5">
+        <v>16</v>
+      </c>
+      <c r="O10" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5">
+        <v>2</v>
+      </c>
+      <c r="G11" s="5">
+        <v>4</v>
+      </c>
+      <c r="H11" s="5">
+        <v>5</v>
+      </c>
+      <c r="I11" s="5">
+        <v>5</v>
+      </c>
+      <c r="J11" s="5">
+        <v>11</v>
+      </c>
+      <c r="K11" s="5">
+        <v>11</v>
+      </c>
+      <c r="L11" s="5">
+        <v>13</v>
+      </c>
+      <c r="M11" s="5">
+        <v>12</v>
+      </c>
+      <c r="N11" s="5">
+        <v>16</v>
+      </c>
+      <c r="O11" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="1">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5">
+        <v>4</v>
+      </c>
+      <c r="H12" s="5">
+        <v>5</v>
+      </c>
+      <c r="I12" s="5">
+        <v>5</v>
+      </c>
+      <c r="J12" s="5">
+        <v>11</v>
+      </c>
+      <c r="K12" s="5">
+        <v>11</v>
+      </c>
+      <c r="L12" s="3">
+        <v>12</v>
+      </c>
+      <c r="M12" s="4">
+        <v>13</v>
+      </c>
+      <c r="N12" s="3">
+        <v>16</v>
+      </c>
+      <c r="O12" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+      <c r="G13" s="5">
+        <v>4</v>
+      </c>
+      <c r="H13" s="5">
+        <v>5</v>
+      </c>
+      <c r="I13" s="5">
+        <v>5</v>
+      </c>
+      <c r="J13" s="5">
+        <v>11</v>
+      </c>
+      <c r="K13" s="5">
+        <v>11</v>
+      </c>
+      <c r="L13" s="4">
+        <v>12</v>
+      </c>
+      <c r="M13" s="5">
+        <v>13</v>
+      </c>
+      <c r="N13" s="5">
+        <v>16</v>
+      </c>
+      <c r="O13" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="1">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5">
+        <v>4</v>
+      </c>
+      <c r="H14" s="5">
+        <v>5</v>
+      </c>
+      <c r="I14" s="5">
+        <v>5</v>
+      </c>
+      <c r="J14" s="5">
+        <v>11</v>
+      </c>
+      <c r="K14" s="5">
+        <v>11</v>
+      </c>
+      <c r="L14" s="5">
+        <v>12</v>
+      </c>
+      <c r="M14" s="5">
+        <v>13</v>
+      </c>
+      <c r="N14" s="3">
+        <v>14</v>
+      </c>
+      <c r="O14" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>9</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2</v>
+      </c>
+      <c r="G15" s="5">
+        <v>4</v>
+      </c>
+      <c r="H15" s="5">
+        <v>5</v>
+      </c>
+      <c r="I15" s="5">
+        <v>5</v>
+      </c>
+      <c r="J15" s="5">
+        <v>11</v>
+      </c>
+      <c r="K15" s="5">
+        <v>11</v>
+      </c>
+      <c r="L15" s="5">
+        <v>12</v>
+      </c>
+      <c r="M15" s="5">
+        <v>13</v>
+      </c>
+      <c r="N15" s="4">
+        <v>14</v>
+      </c>
+      <c r="O15" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="22.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1">
+        <v>10</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2</v>
+      </c>
+      <c r="G16" s="5">
+        <v>4</v>
+      </c>
+      <c r="H16" s="5">
+        <v>5</v>
+      </c>
+      <c r="I16" s="5">
+        <v>5</v>
+      </c>
+      <c r="J16" s="5">
+        <v>11</v>
+      </c>
+      <c r="K16" s="5">
+        <v>11</v>
+      </c>
+      <c r="L16" s="5">
+        <v>12</v>
+      </c>
+      <c r="M16" s="5">
+        <v>13</v>
+      </c>
+      <c r="N16" s="5">
+        <v>14</v>
+      </c>
+      <c r="O16" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:8" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="34" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -674,7 +1134,10 @@
     <row r="39" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="40" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A17:H17"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>